--- a/ig/ch-term/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
+++ b/ig/ch-term/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>http://art-decor.org/ns/oids/vs#urn:oid:2.16.756.5.30.1.127.3.3.4 (use: official)</t>
+    <t>http://art-decor.org/ns/oids/vs#urn:oid:2.16.756.5.30.1.127.3.3.4 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
+++ b/ig/ch-term/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -27,16 +27,10 @@
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-recommendation-categories-cs</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://art-decor.org/ns/oids/vs#urn:oid:2.16.756.5.30.1.127.3.3.4 (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -308,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -400,15 +394,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>22</v>
@@ -426,15 +420,15 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -448,54 +442,46 @@
       <c r="A17" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>37</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -513,63 +499,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>42</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/ig/ch-term/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
+++ b/ig/ch-term/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
